--- a/pred_ohlcv/54_21/2020-01-12 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 QTUM ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-21124.06350000001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-21147.56350000001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-19336.37990000001</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-19115.63150000001</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>979.5862999999886</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>936.1533999999886</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1136.153399999989</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>702.6577999999886</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>658.3477999999886</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>576.1477999999886</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>763.9477999999885</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1083.847799999989</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1895.342199999989</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9813.427663099985</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>7903.908563099985</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>23265.87476309998</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>23298.87146309998</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>22406.17336309998</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>22909.66596309998</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>24280.35766309998</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>26113.51926309998</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>25897.75496309998</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>25410.12296309998</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>25443.11966309998</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>23785.69913989998</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>20349.49363989998</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19875.90263989998</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>17114.67983989998</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>16617.20863989998</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>16266.33163989998</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>14752.71403989998</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>11181.53003989998</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 QTUM ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-21124.06350000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-21147.56350000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-19336.37990000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-19115.63150000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>979.5862999999886</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>686.1533999999886</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>936.1533999999886</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1136.153399999989</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>702.6577999999886</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>658.3477999999886</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>576.1477999999886</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>763.9477999999885</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1083.847799999989</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1895.342199999989</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>180.7419630999858</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9813.427663099985</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>7903.908563099985</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>29843.45086309998</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>34843.45086309998</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>39009.45556309998</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>23265.87476309998</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>23298.87146309998</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>23652.78376309998</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>22406.17336309998</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>22909.66596309998</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>24280.35766309998</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>26113.51926309998</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>25897.75496309998</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>25410.12296309998</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>25443.11966309998</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>23785.69913989998</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>23788.07303989998</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>20349.49363989998</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19875.90263989998</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17497.61113989998</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>17114.67983989998</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17140.47513989998</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>16617.20863989998</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>16266.33163989998</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>14752.71403989998</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>11181.53003989998</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
